--- a/src/donnees/save_metric_all.xlsx
+++ b/src/donnees/save_metric_all.xlsx
@@ -487,25 +487,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1042348519595301</v>
+        <v>0.09729995243089032</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0151800513971524</v>
+        <v>0.01282798403029275</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06108490750193596</v>
+        <v>0.06366662681102753</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1018702267387692</v>
+        <v>0.09621347390968864</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1067118618571204</v>
+        <v>0.09841124905072345</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1042348519595301</v>
+        <v>0.09729995243089032</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02759401021905556</v>
+        <v>0.01992275203114722</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -525,25 +525,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.07653116547156856</v>
+        <v>0.08371294455651207</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004972075172634263</v>
+        <v>0.003729577157065658</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01051586522561897</v>
+        <v>-0.006791232871830371</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06203706415976053</v>
+        <v>0.0657114115531984</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09986270392454977</v>
+        <v>0.1152988839896415</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07653116547156857</v>
+        <v>0.08371294455651207</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00997835505806546</v>
+        <v>0.007647905200599442</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -563,25 +563,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1146987381413064</v>
+        <v>0.1238344641467526</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0218285920248012</v>
+        <v>0.02004333365640825</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09417908638715744</v>
+        <v>0.09142648428678513</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1125611164027215</v>
+        <v>0.1227834977914313</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1169191217361642</v>
+        <v>0.1249035773403428</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1146987381413064</v>
+        <v>0.1238344641467526</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02452028173197599</v>
+        <v>0.0261589380400481</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -601,25 +601,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.06898630701608413</v>
+        <v>0.0720216232680241</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0003013589279433251</v>
+        <v>0.001270791579566221</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.001774248990652604</v>
+        <v>0.004994665570086591</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06736065727291683</v>
+        <v>0.06837363282909976</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07069236253348865</v>
+        <v>0.07608082118982706</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06898630701608412</v>
+        <v>0.07202162326802411</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02259510094895708</v>
+        <v>0.02279872586718863</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -639,25 +639,25 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2636211964957903</v>
+        <v>0.2331107595525481</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08511641089796358</v>
+        <v>0.06453696654672841</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007650281768292189</v>
+        <v>0.002771919593214989</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2488250019697494</v>
+        <v>0.2112923814668732</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2802883348158349</v>
+        <v>0.2599540129645941</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2636211964957902</v>
+        <v>0.2331107595525481</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01212776054648547</v>
+        <v>0.02651459334534601</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -677,25 +677,25 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.309182314383141</v>
+        <v>0.3287814654431601</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1214675658023134</v>
+        <v>0.1346506107239973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02383976988494396</v>
+        <v>0.01746953837573528</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2917626346850645</v>
+        <v>0.3219851892606826</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3288141539728245</v>
+        <v>0.3358708316934158</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3091823143831409</v>
+        <v>0.3287814654431601</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02594951396341053</v>
+        <v>0.03199026208564816</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -715,25 +715,25 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.09629301657829259</v>
+        <v>0.1057439328804415</v>
       </c>
       <c r="B8" t="n">
-        <v>0.009903385068573255</v>
+        <v>0.01012047868567176</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03739426657557487</v>
+        <v>0.05703581497073174</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09369148461841344</v>
+        <v>0.1017001637576507</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0990431482100509</v>
+        <v>0.1101225918745936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09629301657829259</v>
+        <v>0.1057439328804415</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02264451263408822</v>
+        <v>0.02013597917184729</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -753,25 +753,25 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0732059461203569</v>
+        <v>0.06623782779050738</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003356707933030546</v>
+        <v>0.00478741414637484</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02758977125744495</v>
+        <v>-0.01874334546035989</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05992374755548915</v>
+        <v>0.05052799344839354</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09405293627274455</v>
+        <v>0.0961241092160713</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0732059461203569</v>
+        <v>0.06623782779050739</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01670295798881459</v>
+        <v>0.01035934303325268</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -791,25 +791,25 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1178437000465675</v>
+        <v>0.1225658392336012</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02507172060190668</v>
+        <v>0.02490420695207982</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06635535508394241</v>
+        <v>0.06267616152763367</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1130977504700597</v>
+        <v>0.1176240509378836</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1230054071314324</v>
+        <v>0.1279410812244623</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1178437000465675</v>
+        <v>0.1225658392336012</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02029565056956027</v>
+        <v>0.02278664343218434</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -829,25 +829,25 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.07371522325622912</v>
+        <v>0.08080205322076527</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.708905695144623e-05</v>
+        <v>0.001388466510231963</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000433553323481208</v>
+        <v>-0.0008872133078970708</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06581965990341924</v>
+        <v>0.07021786422489912</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08376325593944163</v>
+        <v>0.09514334946417111</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07371522325622912</v>
+        <v>0.08080205322076527</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01802803327397827</v>
+        <v>0.01410117139535992</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -867,25 +867,25 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1877749646746278</v>
+        <v>0.2085852263741688</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03385638361350158</v>
+        <v>0.03466882794263414</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02233794704079628</v>
+        <v>-0.02022766135632992</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1639634535465105</v>
+        <v>0.1758156195227401</v>
       </c>
       <c r="E12" t="n">
-        <v>0.219677524023994</v>
+        <v>0.2563688432373927</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1877749646746278</v>
+        <v>0.2085852263741689</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009882681593974587</v>
+        <v>0.01997876651650762</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -905,25 +905,25 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2459176227599606</v>
+        <v>0.2220895816188684</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07033318313191236</v>
+        <v>0.05051646305892982</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.005491871852427721</v>
+        <v>-0.007914658635854721</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2279593013862832</v>
+        <v>0.1947708155437396</v>
       </c>
       <c r="E13" t="n">
-        <v>0.266947370814989</v>
+        <v>0.2583221230969969</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2459176227599606</v>
+        <v>0.2220895816188683</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007929960869502721</v>
+        <v>0.006297302837004246</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>

--- a/src/donnees/save_metric_all.xlsx
+++ b/src/donnees/save_metric_all.xlsx
@@ -487,25 +487,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.09729995243089032</v>
+        <v>0.0943994270396518</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01282798403029275</v>
+        <v>0.0118849639736171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06366662681102753</v>
+        <v>0.07073474675416946</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09621347390968864</v>
+        <v>0.09219406662218692</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09841124905072345</v>
+        <v>0.09671288134525098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09729995243089032</v>
+        <v>0.0943994270396518</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01992275203114722</v>
+        <v>0.01607924244685577</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -525,25 +525,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.08371294455651207</v>
+        <v>0.07255253824828402</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003729577157065658</v>
+        <v>0.00381344369067784</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.006791232871830371</v>
+        <v>-0.009249749738107297</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0657114115531984</v>
+        <v>0.05464132614153021</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1152988839896415</v>
+        <v>0.1079323331549375</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08371294455651207</v>
+        <v>0.07255253824828402</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007647905200599442</v>
+        <v>0.01091400124405987</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -563,25 +563,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1238344641467526</v>
+        <v>0.1245141614361599</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02004333365640825</v>
+        <v>0.02059293632286431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09142648428678513</v>
+        <v>0.09072122722864151</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1227834977914313</v>
+        <v>0.1234856113153257</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1249035773403428</v>
+        <v>0.1255599897007083</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1238344641467526</v>
+        <v>0.1245141614361599</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0261589380400481</v>
+        <v>0.03184841663028724</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -601,25 +601,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0720216232680241</v>
+        <v>0.07969449198123699</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001270791579566221</v>
+        <v>0.002989924283771187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004994665570086591</v>
+        <v>0.001657784395964153</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06837363282909976</v>
+        <v>0.07719236299583844</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07608082118982706</v>
+        <v>0.08236426402044353</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07202162326802411</v>
+        <v>0.07969449198123699</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02279872586718863</v>
+        <v>0.02928029973865489</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -639,25 +639,25 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2331107595525481</v>
+        <v>0.2459495199097231</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06453696654672841</v>
+        <v>0.07627757413131757</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002771919593214989</v>
+        <v>0.006487778387963772</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2112923814668732</v>
+        <v>0.2330141766578524</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2599540129645941</v>
+        <v>0.2604054374254081</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2331107595525481</v>
+        <v>0.2459495199097231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02651459334534601</v>
+        <v>0.04220216778285164</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -677,25 +677,25 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3287814654431601</v>
+        <v>0.3525886931283915</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1346506107239973</v>
+        <v>0.1522380329670673</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01746953837573528</v>
+        <v>0.01770754344761372</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3219851892606826</v>
+        <v>0.343917517965674</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3358708316934158</v>
+        <v>0.3617084296569028</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3287814654431601</v>
+        <v>0.3525886931283915</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03199026208564816</v>
+        <v>0.01572573623103877</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -715,25 +715,25 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1057439328804415</v>
+        <v>0.1000710349697902</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01012047868567176</v>
+        <v>0.009569725811640188</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05703581497073174</v>
+        <v>0.05253230780363083</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1017001637576507</v>
+        <v>0.09744039837696</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1101225918745936</v>
+        <v>0.1028476533424141</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1057439328804415</v>
+        <v>0.1000710349697902</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02013597917184729</v>
+        <v>0.02652915405339331</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -753,25 +753,25 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.06623782779050738</v>
+        <v>0.07330991303354181</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00478741414637484</v>
+        <v>0.003371246392359532</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01874334546035989</v>
+        <v>-0.02151401902766385</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05052799344839354</v>
+        <v>0.05451200738573405</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0961241092160713</v>
+        <v>0.1118961509953965</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06623782779050739</v>
+        <v>0.07330991303354183</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01035934303325268</v>
+        <v>0.01032583319901393</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -791,25 +791,25 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1225658392336012</v>
+        <v>0.1323543325896661</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02490420695207982</v>
+        <v>0.02475385847891761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06267616152763367</v>
+        <v>0.0734919086098671</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1176240509378836</v>
+        <v>0.1295873150024672</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1279410812244623</v>
+        <v>0.1352420940401726</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1225658392336012</v>
+        <v>0.1323543325896661</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02278664343218434</v>
+        <v>0.03362947138223746</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -829,25 +829,25 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.08080205322076527</v>
+        <v>0.07265098851220501</v>
       </c>
       <c r="B11" t="n">
-        <v>0.001388466510231963</v>
+        <v>-0.0006193194041435168</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0008872133078970708</v>
+        <v>-0.001312447909345648</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07021786422489912</v>
+        <v>0.06520437169581332</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09514334946417111</v>
+        <v>0.08201776659961328</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08080205322076527</v>
+        <v>0.072650988512205</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01410117139535992</v>
+        <v>0.01776761137671092</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -867,25 +867,25 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2085852263741688</v>
+        <v>0.1865283329873289</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03466882794263414</v>
+        <v>0.03922834747253331</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02022766135632992</v>
+        <v>-0.005284512415528297</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1758156195227401</v>
+        <v>0.1626742998557275</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2563688432373927</v>
+        <v>0.2185802310283002</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2085852263741689</v>
+        <v>0.186528332987329</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01997876651650762</v>
+        <v>0.02403901329900126</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -905,25 +905,25 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2220895816188684</v>
+        <v>0.227962225571995</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05051646305892982</v>
+        <v>0.06026980297427741</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.007914658635854721</v>
+        <v>0.01444510836154222</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1947708155437396</v>
+        <v>0.2012609938936471</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2583221230969969</v>
+        <v>0.2628320725611434</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2220895816188683</v>
+        <v>0.2279622255719949</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006297302837004246</v>
+        <v>0.01607798812862588</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
